--- a/medicine/Psychotrope/Chemex/Chemex.xlsx
+++ b/medicine/Psychotrope/Chemex/Chemex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chemex est à la fois une cafetière filtre et un objet design inventé par Peter Schlumbohm en 1941. « Chemex » est une marque déposée en France depuis le 4 juin 2014[1]. Aujourd'hui par métonymie, le mot Chemex désigne aussi bien un objet que la méthode pour l'utiliser.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chemex est à la fois une cafetière filtre et un objet design inventé par Peter Schlumbohm en 1941. « Chemex » est une marque déposée en France depuis le 4 juin 2014. Aujourd'hui par métonymie, le mot Chemex désigne aussi bien un objet que la méthode pour l'utiliser.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Design</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cafetière Chemex est réalisée à la main par la société Chemex Corporation à partir de verre soufflé de très haute qualité et résistant. Elle est en forme de sablier. La partie supérieure est évasée avec un bec verseur et sert de support à un filtre. Le modèle classique est accompagné d'une poignée en bois réfractaire à la chaleur sur laquelle est attachée une lanière en cuir. D'autres modèles ont fait leur apparition, notamment la série Glass Handle avec une anse en remplacement de la poignée.
-La Chemex est exposée dans plusieurs musées, notamment dans la collection permanente du Museum of Modern Art à New York[2] et au New York's Corning Museum of Glass[3].
+La Chemex est exposée dans plusieurs musées, notamment dans la collection permanente du Museum of Modern Art à New York et au New York's Corning Museum of Glass.
 </t>
         </is>
       </c>
